--- a/TP_votes/canevas_vote_miss_france.xlsx
+++ b/TP_votes/canevas_vote_miss_france.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alain\Documents\Cours\A4\Blockchain programming\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alain\Documents\GitHub\solidity-smart-contracts\TP_votes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9672"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8772"/>
   </bookViews>
   <sheets>
     <sheet name="page 1" sheetId="1" r:id="rId1"/>
-    <sheet name="page 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <r>
       <rPr>
@@ -8885,9 +8884,6 @@
       </rPr>
       <t>trats</t>
     </r>
-  </si>
-  <si>
-    <t>ME</t>
   </si>
   <si>
     <r>
@@ -14038,10 +14034,10 @@
     <t>Vote Miss France</t>
   </si>
   <si>
-    <t>Alain Trantik</t>
+    <t>Les acteurs sont les suivants : Les votants: Population Française + jury Miss France qui donnent leur voie pour une des propositions. Et enfin l'organisateur du vote qui decide de fermer ou d'ouvrir le vote : Le concours Miss France</t>
   </si>
   <si>
-    <t>Les acteurs sont les suivants : Les votants: Population Française + jury Miss France qui donnent leur voie pour une des propositions. Et enfin l'organisateur du vote qui decide de fermer ou d'ouvrir le vote : Le concours Miss France</t>
+    <t>Alain Trantik et Fabien KFOURY</t>
   </si>
 </sst>
 </file>
@@ -14113,7 +14109,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -14149,24 +14145,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -14192,9 +14175,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -14203,9 +14183,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -14547,8 +14524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14560,10 +14537,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="12"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -14576,22 +14553,22 @@
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>2</v>
+      <c r="D2" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="144.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>3</v>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="23.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -14604,6 +14581,9 @@
       <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="D4" s="10" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="154.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -14614,6 +14594,9 @@
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="23.7" customHeight="1" x14ac:dyDescent="0.3">
@@ -14626,16 +14609,22 @@
       <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="D6" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="140.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -14645,55 +14634,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="42.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="26.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="144.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="23.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="154.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="23.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="140.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>